--- a/Question_Set2/Programming skills/Ionic framework with Angular.xlsx
+++ b/Question_Set2/Programming skills/Ionic framework with Angular.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'By default, the Ionic grid takes 100% width.Which of the following code can allow you to set a specific width based on the screen size?', 'ques_type': 2, 'options': ['&amp;ltion-grid class="ion-grid-width"&amp;gt', '&amp;ltion-grid size="10" offset="2"&amp;gt', '&amp;ltion-grid style="width: 540px"&amp;gt', '&amp;ltion-grid fixed="true"&amp;gt'], 'score': '&amp;ltion-grid fixed="true"&amp;gt'}, {'title': "In Ionic 4.0+, the following routing is defined inside app-routing.module.ts. How can you get the id field value from the detail page?const routes: Routes = [\n  { path: 'details/:id', component: UserComponent}\n]", 'ques_type': 2, 'options': ['this.route.snapshot.param.get(\'id\')', 'this.route.paramMap.get(\'id\')', 'this.route.snapshot.paramMap.get(\'id\')', 'this.route.queryParams[\'id\']'], 'score': "this.route.snapshot.paramMap.get('id')"}, {'title': "To publish your app as PWA, you wrote the following script in index.html. Finally, you copied [project_folder]/platforms/browser/www contents to your http server.What CLI command should you execute before copying them to the web server?&amp;lt!--script&amp;gt\n    if ('serviceWorker' in navigator) {\n      navigator.serviceWorker.register('service-worker.js')\n        .then(() =&amp;gt console.log('service worker is installed!'))\n        .catch(err =&amp;gt console.log('Error found during service worker installation', err))\n    }\n&amp;lt/script--&amp;gt", 'ques_type': 2, 'options': ['ionic cordova platform add browsernpm run ionic:build --prod', 'ionic cordova platform add browserionic build browser --prod --release', 'ionic cordova build androidionic cordova emulate android', 'ionic cordova build pwaionic cordova emulate pwa'], 'score': 'ionic cordova platform add browserionic build browser --prod --release'}, {'title': 'In Ionic Framework 5+, you declare the providers array in app.module.ts as shown in the code below.How can you write code in app.module.ts to import SQLite?providers: [\n StatusBar,\n SplashScreen,\n SQLite,\n { provide: RouteReuseStrategy, useClass: IonicRouteStrategy }', 'ques_type': 2, 'options': ['import { SQLite, SQLiteObject } from \'@ionic-native/sqlite\'', 'import { SQLite } from \'@ionic-native/sqlite\'', 'import { SQLite } from \'@ionic-native/sqlite/ngx\'', 'import { SQLite, SQLiteObject } from \'@ionic-native/sqlite/ngx\''], 'score': "import { SQLite } from '@ionic-native/sqlite/ngx'"}]</t>
+    <t>questions = [
+    {
+        "title": "By default, the Ionic grid takes 100% width.Which of the following code can allow you to set a specific width based on the screen size?",
+        "ques_type": 2,
+        "options": [
+            "&amp;ltion-grid class=\"ion-grid-width\"&amp;gt",
+            "&amp;ltion-grid size=\"10\" offset=\"2\"&amp;gt",
+            "&amp;ltion-grid style=\"width: 540px\"&amp;gt",
+            "&amp;ltion-grid fixed=\"true\"&amp;gt"
+        ],
+        "score": "&amp;ltion-grid fixed=\"true\"&amp;gt"
+    },
+    {
+        "title": "In Ionic 4.0+, the following routing is defined inside app-routing.module.ts. How can you get the id field value from the detail page?const routes: Routes = [\n  { path: 'details/:id', component: UserComponent}\n]",
+        "ques_type": 2,
+        "options": [
+            "this.route.snapshot.param.get('id')",
+            "this.route.paramMap.get('id')",
+            "this.route.snapshot.paramMap.get('id')",
+            "this.route.queryParams['id']"
+        ],
+        "score": "this.route.snapshot.paramMap.get('id')"
+    },
+    {
+        "title": "To publish your app as PWA, you wrote the following script in index.html. Finally, you copied [project_folder]/platforms/browser/www contents to your http server.What CLI command should you execute before copying them to the web server?&amp;lt!--script&amp;gt\n    if ('serviceWorker' in navigator) {\n      navigator.serviceWorker.register('service-worker.js')\n        .then(() =&amp;gt console.log('service worker is installed!'))\n        .catch(err =&amp;gt console.log('Error found during service worker installation', err))\n    }\n&amp;lt/script--&amp;gt",
+        "ques_type": 2,
+        "options": [
+            "ionic cordova platform add browsernpm run ionic:build --prod",
+            "ionic cordova platform add browserionic build browser --prod --release",
+            "ionic cordova build androidionic cordova emulate android",
+            "ionic cordova build pwaionic cordova emulate pwa"
+        ],
+        "score": "ionic cordova platform add browserionic build browser --prod --release"
+    },
+    {
+        "title": "In Ionic Framework 5+, you declare the providers array in app.module.ts as shown in the code below.How can you write code in app.module.ts to import SQLite?providers: [\n StatusBar,\n SplashScreen,\n SQLite,\n { provide: RouteReuseStrategy, useClass: IonicRouteStrategy }",
+        "ques_type": 2,
+        "options": [
+            "import { SQLite, SQLiteObject } from '@ionic-native/sqlite'",
+            "import { SQLite } from '@ionic-native/sqlite'",
+            "import { SQLite } from '@ionic-native/sqlite/ngx'",
+            "import { SQLite, SQLiteObject } from '@ionic-native/sqlite/ngx'"
+        ],
+        "score": "import { SQLite } from '@ionic-native/sqlite/ngx'"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
